--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/java_news/doc/詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{F5C88357-FF30-814F-9931-2CDDA319D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C052EE-FF33-4B35-BEB2-E40803C5F502}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{52BF9A47-5DC3-1946-A959-AFE17BAEF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A1A07E-39F3-4650-AD2B-EE3F99B8AD3F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -76,22 +76,25 @@
     <t>index.jsp</t>
   </si>
   <si>
+    <t>doget</t>
+  </si>
+  <si>
+    <t>ニュースの一覧（カードで表示）</t>
+  </si>
+  <si>
+    <t>ニュース本文</t>
+  </si>
+  <si>
+    <t>/日時-title/</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>news.jsp</t>
+  </si>
+  <si>
     <t>dopost</t>
-  </si>
-  <si>
-    <t>ニュースの一覧（カードで表示）</t>
-  </si>
-  <si>
-    <t>ニュース本文</t>
-  </si>
-  <si>
-    <t>/日時-title/</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>news.jsp</t>
   </si>
   <si>
     <t>管理者ページ</t>
@@ -350,7 +353,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -542,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +561,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,25 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,26 +917,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
   <cols>
     <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,11 +958,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -982,11 +982,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -1005,383 +1005,381 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>49</v>
+      <c r="G11" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="19.5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5"/>
-    <row r="23" spans="1:8" ht="19.5"/>
+        <v>90</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="G6:G7"/>

--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/java_news/doc/詳細設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{52BF9A47-5DC3-1946-A959-AFE17BAEF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A1A07E-39F3-4650-AD2B-EE3F99B8AD3F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{CA981BCF-6BA8-3D44-9CBD-F0CD8696EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CEB653-F358-4316-A418-EF159CB77E4E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -85,7 +85,7 @@
     <t>ニュース本文</t>
   </si>
   <si>
-    <t>/日時-title/</t>
+    <t>/news?id=</t>
   </si>
   <si>
     <t>News</t>
@@ -94,61 +94,109 @@
     <t>news.jsp</t>
   </si>
   <si>
+    <t>[id]はニュースID。</t>
+  </si>
+  <si>
+    <t>←表示であればdoGet()ではないでしょうか？また、動的にURLを生成することができますか？</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ヒョウジデアレバ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ドウテキニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">セイセイスルコトガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ページ</t>
+  </si>
+  <si>
+    <t>管理者関連</t>
+  </si>
+  <si>
+    <t>/member/login/</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>doget / dopost</t>
+  </si>
+  <si>
+    <t>会員ログイン</t>
+  </si>
+  <si>
+    <t>←ログインページを表示する機能と、ログインそのものを行う機能があると思います。</t>
+    <rPh sb="0" eb="1">
+      <t>←</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジスルキノウト </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キノウガアルトオモイマス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/member/logout/</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>logout.jsp</t>
+  </si>
+  <si>
+    <t>会員ログアウト</t>
+  </si>
+  <si>
+    <t>/member/edit/</t>
+  </si>
+  <si>
+    <t>MemberEdit</t>
+  </si>
+  <si>
+    <t>memberEdit.jsp</t>
+  </si>
+  <si>
+    <t>会員情報変更</t>
+  </si>
+  <si>
+    <t>変更する内容を選択</t>
+  </si>
+  <si>
+    <t>←同じURLで複数のサーブレットを起動することが可能でしょうか？</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">フクスウノ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">キドウスルコトガカノウデショウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/member/edit/confirm/</t>
+  </si>
+  <si>
+    <t>MemberEditConfirm</t>
+  </si>
+  <si>
     <t>dopost</t>
   </si>
   <si>
-    <t>管理者ページ</t>
-  </si>
-  <si>
-    <t>管理者関連</t>
-  </si>
-  <si>
-    <t>/member/login/</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>login.jsp</t>
-  </si>
-  <si>
-    <t>会員ログイン</t>
-  </si>
-  <si>
-    <t>/member/logout/</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>logout.jsp</t>
-  </si>
-  <si>
-    <t>会員ログアウト</t>
-  </si>
-  <si>
-    <t>/member/edit/</t>
-  </si>
-  <si>
-    <t>MemberEdit</t>
-  </si>
-  <si>
-    <t>memberEdit.jsp</t>
-  </si>
-  <si>
-    <t>会員情報変更</t>
-  </si>
-  <si>
-    <t>変更する内容を選択</t>
-  </si>
-  <si>
-    <t>MemberEditConfirm</t>
-  </si>
-  <si>
     <t>変更した内容が誤っている・重複している場合</t>
-  </si>
-  <si>
-    <t>/member/edit/confirm/</t>
   </si>
   <si>
     <t>memberEditConfirm.jsp</t>
@@ -212,13 +260,13 @@
     <t>登録情報を記入</t>
   </si>
   <si>
+    <t>/member/register/confirm</t>
+  </si>
+  <si>
     <t>MemberResisterConfirm</t>
   </si>
   <si>
     <t>情報が誤っている・重複している場合</t>
-  </si>
-  <si>
-    <t>/member/register/confirm</t>
   </si>
   <si>
     <t>memberResisterConfirm.jsp</t>
@@ -356,7 +404,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +417,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -539,13 +593,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +672,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -601,6 +715,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,6 +753,787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2187222</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398E32BE-99AC-6848-8B3E-D79B36026B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2271889" y="6223000"/>
+          <a:ext cx="2144889" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>doGet()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1140177</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1267177</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3D5DD5-35D9-934C-9591-670967B947DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5571066" y="6248400"/>
+          <a:ext cx="2144889" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録・編集画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>doGet()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163689</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191911</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>191912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95D391E-740B-2146-805B-55F5F5ED72B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8926689" y="6203245"/>
+          <a:ext cx="2144889" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録・編集確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>doPost()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1360310</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>118535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3505199</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>203202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C431168F-265F-D343-BC13-8C58A6BE1147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239977" y="6214535"/>
+          <a:ext cx="2144889" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データベース登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>doPost()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4687712</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2063046</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>186270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABC4328-4CFC-7941-81C2-945D512FF0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15567379" y="6197603"/>
+          <a:ext cx="2144889" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「完了しました」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2187222</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>239889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D255C8-B5CE-DB4B-A369-1390AD477FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4416778" y="6477001"/>
+          <a:ext cx="1157111" cy="620888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GET</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138289</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>222956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7571DEB2-B277-7048-8D06-3338F216C474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7744178" y="6460068"/>
+          <a:ext cx="1157111" cy="620888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206022</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1363133</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27156F9-2D08-5E43-ADE3-A30107C3378A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11085689" y="6457246"/>
+          <a:ext cx="1157111" cy="620888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3519311</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4676422</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>203201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2926B6-DAAA-294A-9812-B587F81379F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14398978" y="6440313"/>
+          <a:ext cx="1157111" cy="620888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リダイレクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,11 +1833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
@@ -930,13 +1846,14 @@
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,11 +1875,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -982,11 +1899,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -996,392 +1913,405 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
+      <c r="F3" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7"/>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:9" ht="19.5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:9" ht="19.5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
+    <row r="11" spans="1:9" ht="19.5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>50</v>
+      <c r="G11" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="7"/>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="18"/>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
-        <v>57</v>
+    <row r="14" spans="1:9" ht="19.5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="A2:B2"/>
@@ -1393,11 +2323,12 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{CA981BCF-6BA8-3D44-9CBD-F0CD8696EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CEB653-F358-4316-A418-EF159CB77E4E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A8348345-8E55-814A-9055-56AC7EA66B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23EF9E6E-6AC8-44B7-A01F-60C2C6DC05A4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -199,7 +199,7 @@
     <t>変更した内容が誤っている・重複している場合</t>
   </si>
   <si>
-    <t>memberEditConfirm.jsp</t>
+    <t>done.jsp</t>
   </si>
   <si>
     <t>会員情報変更完了</t>
@@ -226,10 +226,7 @@
     <t>/member/delete/confirm/</t>
   </si>
   <si>
-    <t>MemberDeleteConfirm</t>
-  </si>
-  <si>
-    <t>memberDeleteConfirm.jsp</t>
+    <t>MemberDeleteDone</t>
   </si>
   <si>
     <t>会員削除完了</t>
@@ -269,9 +266,6 @@
     <t>情報が誤っている・重複している場合</t>
   </si>
   <si>
-    <t>memberResisterConfirm.jsp</t>
-  </si>
-  <si>
     <t>新規会員登録完了</t>
   </si>
   <si>
@@ -290,6 +284,16 @@
     <t>ニュース編集</t>
   </si>
   <si>
+    <t>←同じサーブレットで賄えないでしょうか？また、編集処理はどこで行いますか？</t>
+    <rPh sb="10" eb="11">
+      <t>マカナエナイデショウカ?</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t xml:space="preserve">ヘンシュウショリハドコデオコナイマスカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/news/edit/check</t>
   </si>
   <si>
@@ -308,10 +312,7 @@
     <t>/news/edit/confirm</t>
   </si>
   <si>
-    <t>NewsEditComfirm</t>
-  </si>
-  <si>
-    <t>newsEditConfirm.jsp</t>
+    <t>NewsEditDone</t>
   </si>
   <si>
     <t>ニュース編集完了</t>
@@ -329,6 +330,16 @@
     <t>ニュース登録</t>
   </si>
   <si>
+    <t>←同じサーブレットで賄えないでしょうか？また、登録処理はどこで行いますか？</t>
+    <rPh sb="10" eb="11">
+      <t>マカナエナイデショウカ?</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t xml:space="preserve">トウロクショリハドコデオコナイマスカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/news/register/check</t>
   </si>
   <si>
@@ -344,10 +355,7 @@
     <t>/news/register/comfirm</t>
   </si>
   <si>
-    <t>NewsRegisterConfirm</t>
-  </si>
-  <si>
-    <t>newsRegisterConfirm.jsp</t>
+    <t>NewsRegisterDone</t>
   </si>
   <si>
     <t>ニュース登録完了</t>
@@ -368,10 +376,7 @@
     <t>/news/delete/confirm</t>
   </si>
   <si>
-    <t>NewsDeleteConfirm</t>
-  </si>
-  <si>
-    <t>newDeleteConfirm.jsp</t>
+    <t>NewsDeleteDone</t>
   </si>
   <si>
     <t>ニュース削除完了</t>
@@ -381,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,6 +407,22 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -424,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -647,13 +668,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,10 +702,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -714,28 +756,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +830,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -822,14 +860,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>表示画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -837,7 +879,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -846,14 +890,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>doGet()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -898,7 +946,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -926,14 +976,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>登録・編集画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -941,7 +995,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -950,14 +1006,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>doGet()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1002,7 +1062,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1030,14 +1092,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>登録・編集確認画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1045,7 +1111,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1054,14 +1122,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>doPost()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1106,7 +1178,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1134,14 +1208,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>データベース登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1149,7 +1227,9 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1158,14 +1238,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>doPost()</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1210,7 +1294,9 @@
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1238,7 +1324,9 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>「完了しました」</a:t>
@@ -1283,6 +1371,13 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1308,7 +1403,9 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>GET</a:t>
@@ -1353,6 +1450,13 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1378,7 +1482,9 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>POST</a:t>
@@ -1423,6 +1529,13 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1448,7 +1561,9 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>POST</a:t>
@@ -1493,6 +1608,13 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1518,14 +1640,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>リダイレクト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1835,9 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
@@ -1876,10 +2002,10 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1900,10 +2026,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1913,7 +2039,7 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1922,15 +2048,15 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1942,20 +2068,20 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1972,56 +2098,57 @@
         <v>29</v>
       </c>
       <c r="H5" s="2"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2035,9 +2162,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2057,9 +2184,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2067,250 +2194,258 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="3"/>
+      <c r="I14" s="29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G11:G12"/>
@@ -2325,6 +2460,8 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{FCCB6C7D-BD4C-8546-86A7-799F3C372B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A2539C-0572-4796-9394-A4C64E59268F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6A1DD397-B095-374F-BDE1-47ED4078A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF8D741-A047-492A-BEC0-C144E848779B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -52,6 +52,9 @@
     <t>foward先jsp</t>
   </si>
   <si>
+    <t>アクション</t>
+  </si>
+  <si>
     <t>機能詳細</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">キノウショウサイ </t>
@@ -156,10 +159,13 @@
     <t>done.jsp</t>
   </si>
   <si>
+    <t>dopost</t>
+  </si>
+  <si>
     <t>会員情報変更完了</t>
   </si>
   <si>
-    <t>「完了しました」</t>
+    <t>requestスコープ＆リダイレクトで移動させる</t>
   </si>
   <si>
     <t>/member/delete/</t>
@@ -239,9 +245,6 @@
     <t>newsEditConfirm.jsp</t>
   </si>
   <si>
-    <t>dopost</t>
-  </si>
-  <si>
     <t>ニュース編集確認</t>
   </si>
   <si>
@@ -252,6 +255,7 @@
   </si>
   <si>
     <t>NewsEditDone</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ニュース編集完了</t>
@@ -279,6 +283,7 @@
   </si>
   <si>
     <t>NewsRegisterDone</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ニュース登録完了</t>
@@ -300,6 +305,7 @@
   </si>
   <si>
     <t>NewsDeleteDone</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ニュース削除完了</t>
@@ -327,12 +333,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -346,6 +346,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -606,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,22 +628,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,71 +688,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,14 +1032,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
@@ -1048,10 +1051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1061,412 +1064,416 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>31</v>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5">
+      <c r="A9" s="28"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="19.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
+    <row r="19" spans="1:8" ht="19.5">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C12:C13"/>
@@ -1477,8 +1484,6 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="A4:A19"/>
     <mergeCell ref="B12:B19"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6A1DD397-B095-374F-BDE1-47ED4078A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF8D741-A047-492A-BEC0-C144E848779B}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{6A1DD397-B095-374F-BDE1-47ED4078A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86456382-710B-4024-97B2-BA3E139F0808}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -117,12 +117,12 @@
     <t>login.jsp</t>
   </si>
   <si>
-    <t>doget / dopost</t>
-  </si>
-  <si>
     <t>会員ログイン</t>
   </si>
   <si>
+    <t>dopost</t>
+  </si>
+  <si>
     <t>/member/logout/</t>
   </si>
   <si>
@@ -159,13 +159,13 @@
     <t>done.jsp</t>
   </si>
   <si>
-    <t>dopost</t>
-  </si>
-  <si>
     <t>会員情報変更完了</t>
   </si>
   <si>
     <t>requestスコープ＆リダイレクトで移動させる</t>
+  </si>
+  <si>
+    <t>ー</t>
   </si>
   <si>
     <t>/member/delete/</t>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>登録情報を記入</t>
+  </si>
+  <si>
+    <t>memberResisterConfirm.jsp</t>
   </si>
   <si>
     <t>/member/register/done</t>
@@ -374,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -437,173 +440,328 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -612,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,88 +789,181 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="C19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
@@ -1051,10 +1302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1070,15 +1321,15 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1091,18 +1342,18 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:9" ht="19.5">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1115,375 +1366,522 @@
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="11" t="s">
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5">
+      <c r="A15" s="27"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="57"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5">
+      <c r="A20" s="42"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5">
+      <c r="A21" s="42"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D22" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="3" t="s">
+      <c r="G22" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H22" s="50"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:9" ht="19.5">
+      <c r="A24" s="42"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.5">
+      <c r="A25" s="42"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5">
+      <c r="A26" s="42"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D26" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D27" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="35" t="s">
         <v>39</v>
       </c>
-    </row>
+      <c r="F28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="48"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="19.5"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I15:I16"/>
+  <mergeCells count="30">
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24703"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{6A1DD397-B095-374F-BDE1-47ED4078A16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86456382-710B-4024-97B2-BA3E139F0808}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{B96546F0-8C9F-A748-A5BC-71C3923984C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B4FE2A-7F02-451F-8EC6-230F9D808CB2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -49,10 +49,13 @@
     <t>Servlet</t>
   </si>
   <si>
-    <t>foward先jsp</t>
-  </si>
-  <si>
     <t>アクション</t>
+  </si>
+  <si>
+    <t>foward先(jsp)</t>
+  </si>
+  <si>
+    <t>リダイレクト先(Servlet)</t>
   </si>
   <si>
     <t>機能詳細</t>
@@ -76,12 +79,15 @@
     <t>Index</t>
   </si>
   <si>
-    <t>index.jsp</t>
-  </si>
-  <si>
     <t>doget</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
     <t>ニュースの一覧（カードで表示）</t>
   </si>
   <si>
@@ -94,7 +100,7 @@
     <t>News</t>
   </si>
   <si>
-    <t>news.jsp</t>
+    <t>news</t>
   </si>
   <si>
     <t>[id]はニュースID。</t>
@@ -114,7 +120,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>login.jsp</t>
+    <t>login</t>
   </si>
   <si>
     <t>会員ログイン</t>
@@ -123,13 +129,16 @@
     <t>dopost</t>
   </si>
   <si>
+    <t>入力チェック</t>
+  </si>
+  <si>
     <t>/member/logout/</t>
   </si>
   <si>
     <t>Logout</t>
   </si>
   <si>
-    <t>logout.jsp</t>
+    <t>logout</t>
   </si>
   <si>
     <t>会員ログアウト</t>
@@ -141,7 +150,7 @@
     <t>MemberEdit</t>
   </si>
   <si>
-    <t>memberEdit.jsp</t>
+    <t>memberEdit</t>
   </si>
   <si>
     <t>会員情報変更</t>
@@ -150,13 +159,13 @@
     <t>変更する内容を選択</t>
   </si>
   <si>
+    <t>MemberEditDone</t>
+  </si>
+  <si>
     <t>/member/edit/done</t>
   </si>
   <si>
-    <t>MemberEditDone</t>
-  </si>
-  <si>
-    <t>done.jsp</t>
+    <t>done</t>
   </si>
   <si>
     <t>会員情報変更完了</t>
@@ -165,7 +174,7 @@
     <t>requestスコープ＆リダイレクトで移動させる</t>
   </si>
   <si>
-    <t>ー</t>
+    <t>SQL処理</t>
   </si>
   <si>
     <t>/member/delete/</t>
@@ -174,7 +183,7 @@
     <t>MemberDelete</t>
   </si>
   <si>
-    <t>memberDelete.jsp</t>
+    <t>memberDelete</t>
   </si>
   <si>
     <t>会員削除</t>
@@ -198,7 +207,7 @@
     <t>MemberResister</t>
   </si>
   <si>
-    <t>memberResister.jsp</t>
+    <t>memberResister</t>
   </si>
   <si>
     <t>新規会員登録</t>
@@ -217,13 +226,13 @@
     <t>登録情報を記入</t>
   </si>
   <si>
-    <t>memberResisterConfirm.jsp</t>
+    <t>memberResisterConfirm</t>
+  </si>
+  <si>
+    <t>MemberResisterDone</t>
   </si>
   <si>
     <t>/member/register/done</t>
-  </si>
-  <si>
-    <t>MemberResisterDone</t>
   </si>
   <si>
     <t>新規会員登録完了</t>
@@ -239,13 +248,16 @@
     <t>NewsEdit</t>
   </si>
   <si>
-    <t>newsEdit.jsp</t>
+    <t>newsEdit</t>
   </si>
   <si>
     <t>ニュース編集</t>
   </si>
   <si>
-    <t>newsEditConfirm.jsp</t>
+    <t>newsEditConfirm</t>
+  </si>
+  <si>
+    <t>NewsEditDone</t>
   </si>
   <si>
     <t>ニュース編集確認</t>
@@ -257,10 +269,6 @@
     <t>/news/edit/done</t>
   </si>
   <si>
-    <t>NewsEditDone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニュース編集完了</t>
   </si>
   <si>
@@ -270,13 +278,16 @@
     <t>NewsRegister</t>
   </si>
   <si>
-    <t>newsRegister.jsp</t>
+    <t>newsRegister</t>
   </si>
   <si>
     <t>ニュース登録</t>
   </si>
   <si>
-    <t>newsRegisterConfirm.jsp</t>
+    <t>newsRegisterConfirm</t>
+  </si>
+  <si>
+    <t>NewsRegisterDone</t>
   </si>
   <si>
     <t>ニュース登録確認</t>
@@ -285,10 +296,6 @@
     <t>/news/register/done</t>
   </si>
   <si>
-    <t>NewsRegisterDone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニュース登録完了</t>
   </si>
   <si>
@@ -298,7 +305,7 @@
     <t>NewsDelete</t>
   </si>
   <si>
-    <t>newsDelete.jsp</t>
+    <t>newsDelete</t>
   </si>
   <si>
     <t>ニュース削除</t>
@@ -318,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +363,26 @@
       <name val="游ゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -377,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -764,13 +791,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,60 +839,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -862,30 +975,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,77 +983,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,32 +1351,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5737E99-7D71-9749-B142-46F9DFBA2B95}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1321,547 +1392,641 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="50"/>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H5" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5">
-      <c r="A3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="30"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="30"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="F18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="33" t="s">
+      <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="G20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="31"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I21" s="66"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="33" t="s">
+      <c r="F24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="57"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="33" t="s">
+      <c r="F27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="63"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5">
-      <c r="A20" s="42"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.5">
-      <c r="A21" s="42"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.5">
-      <c r="A24" s="42"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19.5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="1:9" ht="19.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="19.5"/>
+      <c r="G27" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="66"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J22:J23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
@@ -1876,6 +2041,14 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>

--- a/doc/詳細設計/URL一覧.xlsx
+++ b/doc/詳細設計/URL一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/利用者様成果物/2校/0023_関戸基之/記事サイト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{B96546F0-8C9F-A748-A5BC-71C3923984C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B4FE2A-7F02-451F-8EC6-230F9D808CB2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{74CADAC2-DE34-014D-8509-C751F964FF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80A4DFC0-E31B-4CE2-BEF6-03E721301BC6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -229,10 +229,10 @@
     <t>memberResisterConfirm</t>
   </si>
   <si>
+    <t>/member/register/done</t>
+  </si>
+  <si>
     <t>MemberResisterDone</t>
-  </si>
-  <si>
-    <t>/member/register/done</t>
   </si>
   <si>
     <t>新規会員登録完了</t>
@@ -257,18 +257,18 @@
     <t>newsEditConfirm</t>
   </si>
   <si>
+    <t>ニュース編集確認</t>
+  </si>
+  <si>
+    <t>ニュースのレイアウトを表示</t>
+  </si>
+  <si>
+    <t>/news/edit/done</t>
+  </si>
+  <si>
     <t>NewsEditDone</t>
   </si>
   <si>
-    <t>ニュース編集確認</t>
-  </si>
-  <si>
-    <t>ニュースのレイアウトを表示</t>
-  </si>
-  <si>
-    <t>/news/edit/done</t>
-  </si>
-  <si>
     <t>ニュース編集完了</t>
   </si>
   <si>
@@ -287,13 +287,13 @@
     <t>newsRegisterConfirm</t>
   </si>
   <si>
+    <t>ニュース登録確認</t>
+  </si>
+  <si>
+    <t>/news/register/done</t>
+  </si>
+  <si>
     <t>NewsRegisterDone</t>
-  </si>
-  <si>
-    <t>ニュース登録確認</t>
-  </si>
-  <si>
-    <t>/news/register/done</t>
   </si>
   <si>
     <t>ニュース登録完了</t>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,12 +365,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -379,7 +373,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <charset val="1"/>
     </font>
@@ -808,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,10 +884,103 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -908,12 +995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,116 +1007,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,11 +1339,11 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="B14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="20.100000000000001"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1373,10 +1358,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1400,10 +1385,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1427,10 +1412,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1455,22 +1440,22 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="58" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -1483,28 +1468,28 @@
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="70" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1514,7 +1499,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -1527,18 +1512,18 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -1553,32 +1538,32 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="64"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="69" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1598,27 +1583,27 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
@@ -1642,12 +1627,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="58" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1667,31 +1652,31 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="30"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="66"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="41" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="58" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1710,33 +1695,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="30"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="60"/>
+    <row r="15" spans="1:10" ht="19.5">
+      <c r="A15" s="61"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="67"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="64" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1750,38 +1735,38 @@
       <c r="H16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="68" t="s">
+      <c r="G17" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1797,38 +1782,38 @@
         <v>64</v>
       </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33" t="s">
+      <c r="D20" s="64" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -1846,32 +1831,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
+    <row r="21" spans="1:10" ht="19.5">
+      <c r="A21" s="62"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="68" t="s">
+      <c r="G21" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="66"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1887,43 +1872,43 @@
         <v>74</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="43"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="64" t="s">
         <v>78</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -1936,28 +1921,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="36"/>
+    <row r="25" spans="1:10" ht="19.5">
+      <c r="A25" s="62"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="68" t="s">
+      <c r="G25" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="13" t="s">
         <v>80</v>
       </c>
@@ -1979,12 +1964,12 @@
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="64" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1993,7 +1978,7 @@
       <c r="F27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="35" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="23" t="s">
@@ -2004,27 +1989,41 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="73" t="s">
+      <c r="F28" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="66"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A1:B1"/>
@@ -2041,20 +2040,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
